--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/St6gal1-Cd22.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/St6gal1-Cd22.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.411649666666666</v>
+        <v>7.429598666666667</v>
       </c>
       <c r="H2">
-        <v>16.234949</v>
+        <v>22.288796</v>
       </c>
       <c r="I2">
-        <v>0.1787865280277313</v>
+        <v>0.2633764192298049</v>
       </c>
       <c r="J2">
-        <v>0.1787865280277313</v>
+        <v>0.2633764192298049</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.348457333333333</v>
+        <v>6.663840333333333</v>
       </c>
       <c r="N2">
-        <v>16.045372</v>
+        <v>19.991521</v>
       </c>
       <c r="O2">
-        <v>0.4996811083875221</v>
+        <v>0.3746160267057107</v>
       </c>
       <c r="P2">
-        <v>0.4996811083875221</v>
+        <v>0.3746160267057107</v>
       </c>
       <c r="Q2">
-        <v>28.94397734511422</v>
+        <v>49.50965925541289</v>
       </c>
       <c r="R2">
-        <v>260.495796106028</v>
+        <v>445.586933298716</v>
       </c>
       <c r="S2">
-        <v>0.08933625048965355</v>
+        <v>0.09866502769984704</v>
       </c>
       <c r="T2">
-        <v>0.08933625048965356</v>
+        <v>0.09866502769984704</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.411649666666666</v>
+        <v>7.429598666666667</v>
       </c>
       <c r="H3">
-        <v>16.234949</v>
+        <v>22.288796</v>
       </c>
       <c r="I3">
-        <v>0.1787865280277313</v>
+        <v>0.2633764192298049</v>
       </c>
       <c r="J3">
-        <v>0.1787865280277313</v>
+        <v>0.2633764192298049</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.355284</v>
+        <v>11.12461466666667</v>
       </c>
       <c r="N3">
-        <v>16.065852</v>
+        <v>33.373844</v>
       </c>
       <c r="O3">
-        <v>0.5003188916124779</v>
+        <v>0.6253839732942893</v>
       </c>
       <c r="P3">
-        <v>0.5003188916124779</v>
+        <v>0.6253839732942893</v>
       </c>
       <c r="Q3">
-        <v>28.98092087350533</v>
+        <v>82.65142229464711</v>
       </c>
       <c r="R3">
-        <v>260.828287861548</v>
+        <v>743.862800651824</v>
       </c>
       <c r="S3">
-        <v>0.08945027753807773</v>
+        <v>0.1647113915299578</v>
       </c>
       <c r="T3">
-        <v>0.08945027753807773</v>
+        <v>0.1647113915299578</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>5.999271</v>
       </c>
       <c r="I4">
-        <v>0.06606665858866914</v>
+        <v>0.07089061759860023</v>
       </c>
       <c r="J4">
-        <v>0.06606665858866914</v>
+        <v>0.07089061759860024</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.348457333333333</v>
+        <v>6.663840333333333</v>
       </c>
       <c r="N4">
-        <v>16.045372</v>
+        <v>19.991521</v>
       </c>
       <c r="O4">
-        <v>0.4996811083875221</v>
+        <v>0.3746160267057107</v>
       </c>
       <c r="P4">
-        <v>0.4996811083875221</v>
+        <v>0.3746160267057107</v>
       </c>
       <c r="Q4">
-        <v>10.69561499153467</v>
+        <v>13.32606135346567</v>
       </c>
       <c r="R4">
-        <v>96.260534923812</v>
+        <v>119.934552181191</v>
       </c>
       <c r="S4">
-        <v>0.0330122611910462</v>
+        <v>0.02655676149550155</v>
       </c>
       <c r="T4">
-        <v>0.0330122611910462</v>
+        <v>0.02655676149550155</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>5.999271</v>
       </c>
       <c r="I5">
-        <v>0.06606665858866914</v>
+        <v>0.07089061759860023</v>
       </c>
       <c r="J5">
-        <v>0.06606665858866914</v>
+        <v>0.07089061759860024</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.355284</v>
+        <v>11.12461466666667</v>
       </c>
       <c r="N5">
-        <v>16.065852</v>
+        <v>33.373844</v>
       </c>
       <c r="O5">
-        <v>0.5003188916124779</v>
+        <v>0.6253839732942893</v>
       </c>
       <c r="P5">
-        <v>0.5003188916124779</v>
+        <v>0.6253839732942893</v>
       </c>
       <c r="Q5">
-        <v>10.709266665988</v>
+        <v>22.24652605196933</v>
       </c>
       <c r="R5">
-        <v>96.383399993892</v>
+        <v>200.218734467724</v>
       </c>
       <c r="S5">
-        <v>0.03305439739762294</v>
+        <v>0.04433385610309868</v>
       </c>
       <c r="T5">
-        <v>0.03305439739762294</v>
+        <v>0.04433385610309869</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.42498166666667</v>
+        <v>7.761126333333333</v>
       </c>
       <c r="H6">
-        <v>37.274945</v>
+        <v>23.283379</v>
       </c>
       <c r="I6">
-        <v>0.410488385209873</v>
+        <v>0.2751289476825233</v>
       </c>
       <c r="J6">
-        <v>0.410488385209873</v>
+        <v>0.2751289476825233</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.348457333333333</v>
+        <v>6.663840333333333</v>
       </c>
       <c r="N6">
-        <v>16.045372</v>
+        <v>19.991521</v>
       </c>
       <c r="O6">
-        <v>0.4996811083875221</v>
+        <v>0.3746160267057107</v>
       </c>
       <c r="P6">
-        <v>0.4996811083875221</v>
+        <v>0.3746160267057107</v>
       </c>
       <c r="Q6">
-        <v>66.45448431161554</v>
+        <v>51.71890669216211</v>
       </c>
       <c r="R6">
-        <v>598.09035880454</v>
+        <v>465.470160229459</v>
       </c>
       <c r="S6">
-        <v>0.2051132913018734</v>
+        <v>0.1030677132125502</v>
       </c>
       <c r="T6">
-        <v>0.2051132913018735</v>
+        <v>0.1030677132125502</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.42498166666667</v>
+        <v>7.761126333333333</v>
       </c>
       <c r="H7">
-        <v>37.274945</v>
+        <v>23.283379</v>
       </c>
       <c r="I7">
-        <v>0.410488385209873</v>
+        <v>0.2751289476825233</v>
       </c>
       <c r="J7">
-        <v>0.410488385209873</v>
+        <v>0.2751289476825233</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.355284</v>
+        <v>11.12461466666667</v>
       </c>
       <c r="N7">
-        <v>16.065852</v>
+        <v>33.373844</v>
       </c>
       <c r="O7">
-        <v>0.5003188916124779</v>
+        <v>0.6253839732942893</v>
       </c>
       <c r="P7">
-        <v>0.5003188916124779</v>
+        <v>0.6253839732942893</v>
       </c>
       <c r="Q7">
-        <v>66.53930551979333</v>
+        <v>86.33953983765288</v>
       </c>
       <c r="R7">
-        <v>598.8537496781399</v>
+        <v>777.055858538876</v>
       </c>
       <c r="S7">
-        <v>0.2053750939079995</v>
+        <v>0.172061234469973</v>
       </c>
       <c r="T7">
-        <v>0.2053750939079995</v>
+        <v>0.1720612344699731</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.197203333333333</v>
+        <v>0.9721176666666667</v>
       </c>
       <c r="H8">
-        <v>3.59161</v>
+        <v>2.916353</v>
       </c>
       <c r="I8">
-        <v>0.03955241756100866</v>
+        <v>0.03446119791980235</v>
       </c>
       <c r="J8">
-        <v>0.03955241756100866</v>
+        <v>0.03446119791980236</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.348457333333333</v>
+        <v>6.663840333333333</v>
       </c>
       <c r="N8">
-        <v>16.045372</v>
+        <v>19.991521</v>
       </c>
       <c r="O8">
-        <v>0.4996811083875221</v>
+        <v>0.3746160267057107</v>
       </c>
       <c r="P8">
-        <v>0.4996811083875221</v>
+        <v>0.3746160267057107</v>
       </c>
       <c r="Q8">
-        <v>6.403190947657778</v>
+        <v>6.478036915879222</v>
       </c>
       <c r="R8">
-        <v>57.62871852892</v>
+        <v>58.302332242913</v>
       </c>
       <c r="S8">
-        <v>0.0197635958462909</v>
+        <v>0.01290971704023546</v>
       </c>
       <c r="T8">
-        <v>0.0197635958462909</v>
+        <v>0.01290971704023546</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.197203333333333</v>
+        <v>0.9721176666666667</v>
       </c>
       <c r="H9">
-        <v>3.59161</v>
+        <v>2.916353</v>
       </c>
       <c r="I9">
-        <v>0.03955241756100866</v>
+        <v>0.03446119791980235</v>
       </c>
       <c r="J9">
-        <v>0.03955241756100866</v>
+        <v>0.03446119791980236</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.355284</v>
+        <v>11.12461466666667</v>
       </c>
       <c r="N9">
-        <v>16.065852</v>
+        <v>33.373844</v>
       </c>
       <c r="O9">
-        <v>0.5003188916124779</v>
+        <v>0.6253839732942893</v>
       </c>
       <c r="P9">
-        <v>0.5003188916124779</v>
+        <v>0.6253839732942893</v>
       </c>
       <c r="Q9">
-        <v>6.411363855746667</v>
+        <v>10.81443445232578</v>
       </c>
       <c r="R9">
-        <v>57.70227470172</v>
+        <v>97.32991007093199</v>
       </c>
       <c r="S9">
-        <v>0.01978882171471776</v>
+        <v>0.02155148087956689</v>
       </c>
       <c r="T9">
-        <v>0.01978882171471776</v>
+        <v>0.0215514808795669</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.235186000000001</v>
+        <v>10.04645066666667</v>
       </c>
       <c r="H10">
-        <v>27.705558</v>
+        <v>30.139352</v>
       </c>
       <c r="I10">
-        <v>0.305106010612718</v>
+        <v>0.3561428175692692</v>
       </c>
       <c r="J10">
-        <v>0.305106010612718</v>
+        <v>0.3561428175692692</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.348457333333333</v>
+        <v>6.663840333333333</v>
       </c>
       <c r="N10">
-        <v>16.045372</v>
+        <v>19.991521</v>
       </c>
       <c r="O10">
-        <v>0.4996811083875221</v>
+        <v>0.3746160267057107</v>
       </c>
       <c r="P10">
-        <v>0.4996811083875221</v>
+        <v>0.3746160267057107</v>
       </c>
       <c r="Q10">
-        <v>49.39399828639733</v>
+        <v>66.94794315937689</v>
       </c>
       <c r="R10">
-        <v>444.5459845775761</v>
+        <v>602.5314884343919</v>
       </c>
       <c r="S10">
-        <v>0.152455709558658</v>
+        <v>0.1334168072575764</v>
       </c>
       <c r="T10">
-        <v>0.152455709558658</v>
+        <v>0.1334168072575764</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>9.235186000000001</v>
+        <v>10.04645066666667</v>
       </c>
       <c r="H11">
-        <v>27.705558</v>
+        <v>30.139352</v>
       </c>
       <c r="I11">
-        <v>0.305106010612718</v>
+        <v>0.3561428175692692</v>
       </c>
       <c r="J11">
-        <v>0.305106010612718</v>
+        <v>0.3561428175692692</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.355284</v>
+        <v>11.12461466666667</v>
       </c>
       <c r="N11">
-        <v>16.065852</v>
+        <v>33.373844</v>
       </c>
       <c r="O11">
-        <v>0.5003188916124779</v>
+        <v>0.6253839732942893</v>
       </c>
       <c r="P11">
-        <v>0.5003188916124779</v>
+        <v>0.6253839732942893</v>
       </c>
       <c r="Q11">
-        <v>49.45704382282401</v>
+        <v>111.7628924343431</v>
       </c>
       <c r="R11">
-        <v>445.113394405416</v>
+        <v>1005.866031909088</v>
       </c>
       <c r="S11">
-        <v>0.15265030105406</v>
+        <v>0.2227260103116928</v>
       </c>
       <c r="T11">
-        <v>0.15265030105406</v>
+        <v>0.2227260103116928</v>
       </c>
     </row>
   </sheetData>
